--- a/docs/DicionarioDados.xlsx
+++ b/docs/DicionarioDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Ferreira\Desktop\Projecto Integrador\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE52EE42-1D8B-4187-A7B6-9D361FA119FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9950089D-AAB5-41E2-9156-95A427E4E1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{264BD908-F1D5-4FF7-AF64-39159BCD387C}"/>
   </bookViews>
@@ -739,6 +739,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,15 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,21 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAD415C-4B80-4EB5-A77F-16AD5D2C51A6}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,27 +1150,27 @@
   <sheetData>
     <row r="1" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="J2" s="19" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="J2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="Q2" s="22" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="Q2" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
     </row>
     <row r="3" spans="3:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="7" t="s">
@@ -1361,13 +1361,13 @@
       <c r="G7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
       <c r="Q7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="C10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1526,13 +1526,13 @@
       <c r="G11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="Q11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="9" t="s">
@@ -1550,13 +1550,13 @@
       <c r="G12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
       <c r="Q12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1638,13 +1638,13 @@
       </c>
     </row>
     <row r="15" spans="3:21" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
       <c r="J15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1692,13 +1692,13 @@
       <c r="N16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="Q16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="24"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="8" t="s">
@@ -1896,13 +1896,13 @@
       <c r="G21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
       <c r="Q21" s="9" t="s">
         <v>58</v>
       </c>
@@ -2034,14 +2034,14 @@
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="J27" s="31" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="J27" s="22" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="G28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="19" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       <c r="G29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="G30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2158,16 +2158,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J12:N12"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="Q16:U16"/>
     <mergeCell ref="J21:N21"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="J12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
